--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -34,109 +34,109 @@
     <t>mean:rvar</t>
   </si>
   <si>
-    <t>-0.1</t>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.2*</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.19*</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.11</t>
   </si>
   <si>
     <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.19*</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.19*</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.2*</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.08</t>
   </si>
 </sst>
 </file>
@@ -549,40 +549,40 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -593,40 +593,40 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -637,40 +637,40 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -678,43 +678,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -722,43 +722,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -766,31 +766,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -799,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
